--- a/GATEWAY/S1#111SINAPSYSXXX/sinapsys/1.0.1/1/accreditamento-checklist_V8.1.3.xlsx
+++ b/GATEWAY/S1#111SINAPSYSXXX/sinapsys/1.0.1/1/accreditamento-checklist_V8.1.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Progetti\FSE DA INVIARE CASE TEST 0\S1#111SINAPSYSXXXsinapsys1.0.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.gareri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86B78F1-C0CC-4D14-A9DF-AD7AAEACF25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD307AC0-203B-4904-8993-0F058D10770F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3690" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="877">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4587,9 +4587,6 @@
     <t>Mostra un messaggio di errore all'utente riportando in dettaglio la risposta che viene fornita dal gateway</t>
   </si>
   <si>
-    <t>Il Pronto soccorso potrà contattarci per risolvere l'errore</t>
-  </si>
-  <si>
     <t>Non si può verificare perché viene gestito obbligatoriamente dall'applicativo</t>
   </si>
   <si>
@@ -4605,9 +4602,6 @@
     <t>Non si può verificare perché viene gestito obbligatoriamente dall'applicativo con un campo di testo</t>
   </si>
   <si>
-    <t>Mostra un messaggio di errore all'utente, nello specifico l'errore che riporta in dettaglio la risposta della validazione. Non permetterà di firmare il documento e bloccarlo</t>
-  </si>
-  <si>
     <t>subject_application_id: 1.0.1</t>
   </si>
   <si>
@@ -4654,6 +4648,15 @@
   </si>
   <si>
     <t>2023-06-30-16:32:19</t>
+  </si>
+  <si>
+    <t>Il Pronto soccorso potrà contattarci per risolvere l'errore, in caso di errore non può proseguire con il processo ma può produrre il documento. Una volta risolto l'errore, da parte dell'operatore di back office, l'utente medico dovrà , con le medesime modalità, ricreare il documento e procedere con la validazione.</t>
+  </si>
+  <si>
+    <t>Nel nostro sistema il campo confidentiality code è preventivamente controllato, permettendo, così, solo ed esclusivamente l'inserimento, da parte dell'utente medico, dei valori corretti e non nulli.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'operazione di retry viene eseguita manualmente dall'utente medico </t>
   </si>
 </sst>
 </file>
@@ -5081,6 +5084,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5102,15 +5114,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5407,7 +5410,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -6471,7 +6476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -7574,10 +7579,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="I380" sqref="I380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -7615,12 +7620,12 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="39"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="42"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7638,14 +7643,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="47" t="s">
-        <v>860</v>
-      </c>
-      <c r="D3" s="39"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="50" t="s">
+        <v>858</v>
+      </c>
+      <c r="D3" s="42"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -7663,12 +7668,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="47" t="s">
-        <v>861</v>
-      </c>
-      <c r="D4" s="39"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="50" t="s">
+        <v>859</v>
+      </c>
+      <c r="D4" s="42"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -7687,12 +7692,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47" t="s">
-        <v>862</v>
-      </c>
-      <c r="D5" s="39"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50" t="s">
+        <v>860</v>
+      </c>
+      <c r="D5" s="42"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -7710,8 +7715,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -7766,7 +7771,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="15"/>
     </row>
-    <row r="9" spans="1:20" ht="14.25" customHeight="1">
+    <row r="9" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="17" t="s">
         <v>24</v>
       </c>
@@ -8542,7 +8547,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="14.25" customHeight="1">
+    <row r="31" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A31" s="20">
         <v>24</v>
       </c>
@@ -8580,7 +8585,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="14.25" customHeight="1">
+    <row r="32" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="20">
         <v>25</v>
       </c>
@@ -8656,7 +8661,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="14.25" customHeight="1">
+    <row r="34" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A34" s="20">
         <v>27</v>
       </c>
@@ -8951,11 +8956,11 @@
       <c r="F42" s="34">
         <v>45107</v>
       </c>
-      <c r="G42" s="50" t="s">
-        <v>875</v>
-      </c>
-      <c r="H42" s="49" t="s">
-        <v>874</v>
+      <c r="G42" s="38" t="s">
+        <v>873</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>872</v>
       </c>
       <c r="I42" s="33" t="s">
         <v>851</v>
@@ -8977,7 +8982,7 @@
         <v>139</v>
       </c>
       <c r="P42" s="25" t="s">
-        <v>853</v>
+        <v>874</v>
       </c>
       <c r="Q42" s="25"/>
       <c r="R42" s="26"/>
@@ -9244,10 +9249,10 @@
         <v>45107</v>
       </c>
       <c r="G50" s="33" t="s">
-        <v>872</v>
-      </c>
-      <c r="H50" s="48" t="s">
-        <v>873</v>
+        <v>870</v>
+      </c>
+      <c r="H50" s="36" t="s">
+        <v>871</v>
       </c>
       <c r="I50" s="33" t="s">
         <v>851</v>
@@ -9269,7 +9274,7 @@
         <v>139</v>
       </c>
       <c r="P50" s="25" t="s">
-        <v>853</v>
+        <v>874</v>
       </c>
       <c r="Q50" s="25"/>
       <c r="R50" s="26"/>
@@ -9555,10 +9560,16 @@
       </c>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
+      <c r="M58" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="N58" s="25" t="s">
+        <v>852</v>
+      </c>
       <c r="O58" s="25"/>
-      <c r="P58" s="25"/>
+      <c r="P58" s="25" t="s">
+        <v>876</v>
+      </c>
       <c r="Q58" s="25"/>
       <c r="R58" s="26"/>
       <c r="S58" s="27"/>
@@ -11946,7 +11957,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="14.25" customHeight="1">
+    <row r="129" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A129" s="20">
         <v>122</v>
       </c>
@@ -11966,13 +11977,13 @@
         <v>45107</v>
       </c>
       <c r="G129" s="33" t="s">
+        <v>864</v>
+      </c>
+      <c r="H129" s="33" t="s">
+        <v>865</v>
+      </c>
+      <c r="I129" s="33" t="s">
         <v>866</v>
-      </c>
-      <c r="H129" s="33" t="s">
-        <v>867</v>
-      </c>
-      <c r="I129" s="33" t="s">
-        <v>868</v>
       </c>
       <c r="J129" s="25" t="s">
         <v>139</v>
@@ -11991,7 +12002,7 @@
         <v>139</v>
       </c>
       <c r="P129" s="25" t="s">
-        <v>853</v>
+        <v>875</v>
       </c>
       <c r="Q129" s="25"/>
       <c r="R129" s="26"/>
@@ -12000,7 +12011,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="14.25" customHeight="1">
+    <row r="130" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A130" s="20">
         <v>123</v>
       </c>
@@ -12024,7 +12035,7 @@
         <v>848</v>
       </c>
       <c r="K130" s="25" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L130" s="25"/>
       <c r="M130" s="25"/>
@@ -12058,13 +12069,13 @@
         <v>45107</v>
       </c>
       <c r="G131" s="33" t="s">
+        <v>867</v>
+      </c>
+      <c r="H131" s="33" t="s">
+        <v>868</v>
+      </c>
+      <c r="I131" s="33" t="s">
         <v>869</v>
-      </c>
-      <c r="H131" s="33" t="s">
-        <v>870</v>
-      </c>
-      <c r="I131" s="33" t="s">
-        <v>871</v>
       </c>
       <c r="J131" s="25" t="s">
         <v>139</v>
@@ -12083,7 +12094,7 @@
         <v>139</v>
       </c>
       <c r="P131" s="35" t="s">
-        <v>853</v>
+        <v>875</v>
       </c>
       <c r="Q131" s="25"/>
       <c r="R131" s="26"/>
@@ -12116,7 +12127,7 @@
         <v>848</v>
       </c>
       <c r="K132" s="25" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L132" s="25"/>
       <c r="M132" s="25"/>
@@ -12154,7 +12165,7 @@
         <v>848</v>
       </c>
       <c r="K133" s="25" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L133" s="25"/>
       <c r="M133" s="25"/>
@@ -12192,7 +12203,7 @@
         <v>848</v>
       </c>
       <c r="K134" s="25" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L134" s="25"/>
       <c r="M134" s="25"/>
@@ -12230,7 +12241,7 @@
         <v>848</v>
       </c>
       <c r="K135" s="25" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L135" s="25"/>
       <c r="M135" s="25"/>
@@ -12268,7 +12279,7 @@
         <v>848</v>
       </c>
       <c r="K136" s="25" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L136" s="25"/>
       <c r="M136" s="25"/>
@@ -12306,7 +12317,7 @@
         <v>848</v>
       </c>
       <c r="K137" s="25" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L137" s="25"/>
       <c r="M137" s="25"/>
@@ -12344,7 +12355,7 @@
         <v>848</v>
       </c>
       <c r="K138" s="25" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L138" s="25"/>
       <c r="M138" s="25"/>
@@ -12382,7 +12393,7 @@
         <v>848</v>
       </c>
       <c r="K139" s="25" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L139" s="25"/>
       <c r="M139" s="25"/>
@@ -12420,7 +12431,7 @@
         <v>848</v>
       </c>
       <c r="K140" s="25" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="L140" s="25"/>
       <c r="M140" s="25"/>
@@ -12458,7 +12469,7 @@
         <v>848</v>
       </c>
       <c r="K141" s="25" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="L141" s="25"/>
       <c r="M141" s="25"/>
@@ -12496,7 +12507,7 @@
         <v>848</v>
       </c>
       <c r="K142" s="25" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="L142" s="25"/>
       <c r="M142" s="25"/>
@@ -12534,7 +12545,7 @@
         <v>848</v>
       </c>
       <c r="K143" s="25" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="L143" s="25"/>
       <c r="M143" s="25"/>
@@ -12572,7 +12583,7 @@
         <v>848</v>
       </c>
       <c r="K144" s="25" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L144" s="25"/>
       <c r="M144" s="25"/>
@@ -12648,7 +12659,7 @@
         <v>848</v>
       </c>
       <c r="K146" s="25" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L146" s="25"/>
       <c r="M146" s="25"/>
@@ -12686,7 +12697,7 @@
         <v>848</v>
       </c>
       <c r="K147" s="25" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L147" s="25"/>
       <c r="M147" s="25"/>
@@ -12724,7 +12735,7 @@
         <v>848</v>
       </c>
       <c r="K148" s="25" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="L148" s="25"/>
       <c r="M148" s="25"/>
@@ -12762,7 +12773,7 @@
         <v>848</v>
       </c>
       <c r="K149" s="25" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L149" s="25"/>
       <c r="M149" s="25"/>
@@ -12800,7 +12811,7 @@
         <v>848</v>
       </c>
       <c r="K150" s="25" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L150" s="25"/>
       <c r="M150" s="25"/>
@@ -12835,7 +12846,7 @@
         <v>848</v>
       </c>
       <c r="K151" s="25" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L151" s="25"/>
       <c r="M151" s="25"/>
@@ -12873,7 +12884,7 @@
         <v>848</v>
       </c>
       <c r="K152" s="25" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="L152" s="25"/>
       <c r="M152" s="25"/>
@@ -12887,7 +12898,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="14.25" customHeight="1">
+    <row r="153" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A153" s="20">
         <v>146</v>
       </c>
@@ -12911,7 +12922,7 @@
         <v>848</v>
       </c>
       <c r="K153" s="25" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L153" s="25"/>
       <c r="M153" s="25"/>
@@ -20629,27 +20640,21 @@
         <v>45107</v>
       </c>
       <c r="G380" s="24" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="H380" s="24" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I380" s="24" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J380" s="25" t="s">
         <v>139</v>
       </c>
       <c r="K380" s="25"/>
-      <c r="L380" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="M380" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="N380" s="25" t="s">
-        <v>859</v>
-      </c>
+      <c r="L380" s="25"/>
+      <c r="M380" s="25"/>
+      <c r="N380" s="25"/>
       <c r="O380" s="25"/>
       <c r="P380" s="25"/>
       <c r="Q380" s="25"/>
